--- a/InputData/ccs/CC/CCS Calculations.xlsx
+++ b/InputData/ccs/CC/CCS Calculations.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\ccs\CC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\ccs\CC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03285C26-06C0-4B28-9ED1-5B146403E504}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="CC-TOMCpTS" sheetId="5" r:id="rId8"/>
     <sheet name="CC-EUpTCS" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>Source:</t>
   </si>
@@ -412,15 +411,21 @@
   <si>
     <t>(Table 6.1)</t>
   </si>
+  <si>
+    <t>India:US cost adjustment</t>
+  </si>
+  <si>
+    <t>see "scaling-factors.xlsx in the InputData folder for source information.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -627,7 +632,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
@@ -660,10 +665,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -676,14 +681,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -701,6 +700,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -933,23 +938,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -985,23 +973,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1177,34 +1148,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="64.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="84.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" customWidth="1"/>
+    <col min="4" max="4" width="84.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1188,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="32" t="s">
         <v>103</v>
       </c>
@@ -1223,7 +1196,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="31">
         <v>2018</v>
       </c>
@@ -1231,7 +1204,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -1239,7 +1212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>105</v>
       </c>
@@ -1247,7 +1220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>106</v>
       </c>
@@ -1255,163 +1228,178 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="31">
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="30"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="30"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="30"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="30"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="30"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>0.50596615326007366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B48" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{8874C90D-5C9A-44D6-9C36-0F1BAA7CABAA}"/>
-    <hyperlink ref="D15" r:id="rId2" xr:uid="{AA83E611-79DE-414D-AC06-55715AB9E489}"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -1419,26 +1407,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1461,7 +1449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1472,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1486,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1509,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
@@ -1544,7 +1532,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1555,7 @@
         <v>5677</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1590,7 +1578,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
@@ -1613,7 +1601,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -1636,7 +1624,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
@@ -1647,7 +1635,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1658,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -1693,7 +1681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -1716,7 +1704,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>20</v>
       </c>
@@ -1739,7 +1727,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
@@ -1750,7 +1738,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>22</v>
       </c>
@@ -1773,7 +1761,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>23</v>
       </c>
@@ -1796,7 +1784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>24</v>
       </c>
@@ -1819,7 +1807,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>25</v>
       </c>
@@ -1842,7 +1830,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>26</v>
       </c>
@@ -1865,7 +1853,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -1888,7 +1876,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>28</v>
       </c>
@@ -1899,7 +1887,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>29</v>
       </c>
@@ -1922,7 +1910,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="15" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +1933,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>11</v>
       </c>
@@ -1968,7 +1956,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
         <v>22</v>
       </c>
@@ -1991,7 +1979,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>23</v>
       </c>
@@ -2014,7 +2002,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="15" t="s">
         <v>24</v>
       </c>
@@ -2037,7 +2025,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="15" t="s">
         <v>25</v>
       </c>
@@ -2060,7 +2048,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>26</v>
       </c>
@@ -2083,7 +2071,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>27</v>
       </c>
@@ -2106,7 +2094,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
         <v>30</v>
       </c>
@@ -2117,7 +2105,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>31</v>
       </c>
@@ -2140,7 +2128,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="15" t="s">
         <v>32</v>
       </c>
@@ -2163,7 +2151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="20" t="s">
         <v>33</v>
       </c>
@@ -2192,28 +2180,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="20.265625" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>36</v>
@@ -2222,7 +2210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2235,7 +2223,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -2248,7 +2236,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -2259,7 +2247,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -2272,19 +2260,19 @@
         <v>126.17960426179603</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>36</v>
@@ -2293,7 +2281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2294,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2317,7 +2305,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2328,7 +2316,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2341,14 +2329,14 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2356,7 +2344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2369,7 +2357,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,7 +2368,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2391,7 +2379,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2410,44 +2398,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EF6D6A-CAEA-4466-8367-59ADEEC6827B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="40">
         <v>2016</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="40">
         <v>67.95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="42" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -2455,7 +2443,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -2469,14 +2457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21A2C14-1D85-4685-938F-DAD9ED607BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2484,25 +2472,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E80723D-912F-4B6D-BFE2-2D7E8918B54C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.3984375" customWidth="1"/>
+    <col min="2" max="2" width="20.265625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="6" max="6" width="24.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
@@ -2510,52 +2498,52 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B2" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="36">
         <f>AVERAGE(1.06, 1.16)</f>
         <v>1.1099999999999999</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="38" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="36">
         <f>19*10^7</f>
         <v>190000000</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="36">
         <f>23*10^7</f>
         <v>230000000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="36">
         <f>246*10^5</f>
         <v>24600000</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="36">
         <f>221*10^5</f>
         <v>22100000</v>
       </c>
@@ -2564,24 +2552,24 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="36">
         <v>3736.04</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="36">
         <v>3966.02</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2590,7 +2578,7 @@
         <v>0.90090090090090102</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -2602,11 +2590,11 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="36">
         <f>AVERAGE(B4:C4)</f>
         <v>210000000</v>
       </c>
@@ -2618,45 +2606,45 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="36">
         <f>AVERAGE(B5:C5)</f>
         <v>23350000</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="45">
         <f>G7*G8*G9</f>
         <v>3073873.8738738741</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="36">
         <f t="shared" ref="B11" si="0">AVERAGE(B6:C6)</f>
         <v>3851.0299999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="37">
         <f>B10/B9</f>
         <v>0.11119047619047619</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="37">
         <f>B13*B11</f>
         <v>428.19785952380948</v>
       </c>
@@ -2664,16 +2652,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="37">
         <f>B11-B14</f>
         <v>3422.83214047619</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B17" s="28">
         <f>B14/'Conversion Factors'!B2</f>
         <v>6.3016609201443634</v>
@@ -2682,11 +2670,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="44">
         <f>B17*'Conversion Factors'!B6</f>
         <v>6.0282555812939824</v>
       </c>
@@ -2694,7 +2682,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B20" s="28">
         <f>B15/'Conversion Factors'!B2</f>
         <v>50.37280559935526</v>
@@ -2703,11 +2691,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="44">
         <f>B20*'Conversion Factors'!B6</f>
         <v>48.187319239765387</v>
       </c>
@@ -2725,7 +2713,103 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="56.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="28">
+        <f>Calcs!B21*About!$A$46</f>
+        <v>24.38115255165923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="28">
+        <f>B2</f>
+        <v>24.38115255165923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="43.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="28">
+        <f>Calcs!B18*About!$A$46</f>
+        <v>3.0500932873358857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="28">
+        <f>B2</f>
+        <v>3.0500932873358857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2735,109 +2819,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="28">
-        <f>Calcs!B21</f>
-        <v>48.187319239765387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="28">
-        <f>B2</f>
-        <v>48.187319239765387</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="28">
-        <f>Calcs!B18</f>
-        <v>6.0282555812939824</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="28">
-        <f>B2</f>
-        <v>6.0282555812939824</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>46</v>
       </c>
@@ -2845,7 +2833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2854,7 +2842,7 @@
         <v>3073873.8738738741</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>49</v>
       </c>

--- a/InputData/ccs/CC/CCS Calculations.xlsx
+++ b/InputData/ccs/CC/CCS Calculations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\ccs\CC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\ccs\CC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1026AE99-BA8E-436B-87F2-3ABCE79E74A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -49,7 +50,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0.15</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -57,6 +58,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -972,18 +974,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="###0;###0"/>
-    <numFmt numFmtId="167" formatCode="###0.0000;###0.0000"/>
-    <numFmt numFmtId="168" formatCode="###0.00;###0.00"/>
-    <numFmt numFmtId="169" formatCode="###0.000;###0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="###0;###0"/>
+    <numFmt numFmtId="168" formatCode="###0.0000;###0.0000"/>
+    <numFmt numFmtId="169" formatCode="###0.00;###0.00"/>
+    <numFmt numFmtId="170" formatCode="###0.000;###0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,8 +1061,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1077,8 +1131,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1115,23 +1175,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFont="0" applyFill="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1139,7 +1309,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1150,7 +1320,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1165,52 +1335,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1222,7 +1392,7 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1240,10 +1410,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1261,7 +1431,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1278,15 +1448,61 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="19">
+    <cellStyle name="20% - Accent6 3 2" xfId="18" xr:uid="{5F574975-7B97-4F19-8AB4-23B555737D15}"/>
+    <cellStyle name="Body: normal cell" xfId="7" xr:uid="{2B31EA3D-9050-4955-B56C-C6D8E79FE698}"/>
+    <cellStyle name="Comma 2" xfId="16" xr:uid="{FC8F1509-6D48-405A-9BD5-495513A2DC0C}"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="8" xr:uid="{C8DF43DD-E5FA-4A92-AFC8-CA9E14F8FE0B}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="11" xr:uid="{1AE228DD-3176-479B-B509-F6A288B3EF2D}"/>
+    <cellStyle name="Footnotes: top row" xfId="9" xr:uid="{DF609A60-0DD9-47E0-A4B8-F96B8DEF12DB}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{FD83D70A-18B5-4006-B0A2-9342A0F272BC}"/>
+    <cellStyle name="Header: top rows" xfId="12" xr:uid="{98DA3966-DBE8-48C8-A966-F535FCC99961}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="13" xr:uid="{0D97A280-CC98-4CF7-A41F-7EDBF53FA51D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ofwhich" xfId="17" xr:uid="{183C0CF6-0137-42F4-B2A2-8E77CFA8D5BF}"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{5DF63066-FAA6-4151-B4EE-8DAF41F46AF4}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Section Break" xfId="14" xr:uid="{EE6A88C4-8181-4DB6-8E81-FD37D880C292}"/>
+    <cellStyle name="Section Break: parent row" xfId="15" xr:uid="{614D45A9-87BD-494C-9124-25FEF5E9925E}"/>
+    <cellStyle name="Table title" xfId="4" xr:uid="{186A0B8D-1CD3-4EDF-A4CF-EE2B30071492}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal style="dotted">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{60C72310-4B3C-498D-AF31-2F0163AC041C}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1374,6 +1590,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1409,6 +1642,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1584,36 +1834,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.3984375" customWidth="1"/>
-    <col min="2" max="2" width="55.86328125" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,100 +1871,100 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="40">
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="58" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="59">
         <v>0.97</v>
       </c>
@@ -1729,20 +1979,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.73046875" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
@@ -1754,7 +2004,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>31</v>
@@ -1778,7 +2028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>38</v>
       </c>
@@ -1804,7 +2054,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>86</v>
       </c>
@@ -1830,7 +2080,7 @@
         <v>4718</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>40</v>
       </c>
@@ -1856,7 +2106,7 @@
         <v>6133</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>41</v>
       </c>
@@ -1882,7 +2132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>44</v>
       </c>
@@ -1908,7 +2158,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>46</v>
       </c>
@@ -1934,7 +2184,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>48</v>
       </c>
@@ -1960,7 +2210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>50</v>
       </c>
@@ -1986,7 +2236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>55</v>
       </c>
@@ -1998,7 +2248,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>56</v>
       </c>
@@ -2010,7 +2260,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>57</v>
       </c>
@@ -2036,7 +2286,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>59</v>
       </c>
@@ -2062,7 +2312,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>60</v>
       </c>
@@ -2088,7 +2338,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>61</v>
       </c>
@@ -2110,7 +2360,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>66</v>
       </c>
@@ -2136,7 +2386,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>68</v>
       </c>
@@ -2162,7 +2412,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
@@ -2188,7 +2438,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
@@ -2214,7 +2464,7 @@
         <v>0.10970000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>72</v>
       </c>
@@ -2240,7 +2490,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>90</v>
       </c>
@@ -2266,7 +2516,7 @@
         <v>0.13969999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>73</v>
       </c>
@@ -2292,7 +2542,7 @@
         <v>9.2399999999999996E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>74</v>
       </c>
@@ -2316,7 +2566,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>75</v>
       </c>
@@ -2332,7 +2582,7 @@
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
         <v>31</v>
@@ -2362,7 +2612,7 @@
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
         <v>101</v>
       </c>
@@ -2386,7 +2636,7 @@
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>86</v>
       </c>
@@ -2410,7 +2660,7 @@
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>102</v>
       </c>
@@ -2440,7 +2690,7 @@
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>103</v>
       </c>
@@ -2470,7 +2720,7 @@
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>104</v>
       </c>
@@ -2502,7 +2752,7 @@
       <c r="L32" s="17"/>
       <c r="Y32" s="36"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>106</v>
       </c>
@@ -2534,7 +2784,7 @@
       <c r="L33" s="17"/>
       <c r="Y33" s="37"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>107</v>
       </c>
@@ -2565,7 +2815,7 @@
       <c r="J34" s="40"/>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>109</v>
       </c>
@@ -2597,7 +2847,7 @@
       <c r="L35" s="17"/>
       <c r="Y35" s="35"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>110</v>
       </c>
@@ -2617,7 +2867,7 @@
       </c>
       <c r="J36" s="40"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="52" t="s">
         <v>111</v>
       </c>
@@ -2637,7 +2887,7 @@
       </c>
       <c r="J37" s="40"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>85</v>
       </c>
@@ -2674,7 +2924,7 @@
       </c>
       <c r="J38" s="40"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>113</v>
       </c>
@@ -2704,7 +2954,7 @@
       </c>
       <c r="J39" s="40"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>114</v>
       </c>
@@ -2734,7 +2984,7 @@
       </c>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>115</v>
       </c>
@@ -2764,7 +3014,7 @@
       </c>
       <c r="J41" s="40"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>116</v>
       </c>
@@ -2794,7 +3044,7 @@
       </c>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>118</v>
       </c>
@@ -2824,7 +3074,7 @@
       </c>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>120</v>
       </c>
@@ -2854,7 +3104,7 @@
       </c>
       <c r="J44" s="40"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>121</v>
       </c>
@@ -2884,7 +3134,7 @@
       </c>
       <c r="J45" s="40"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>122</v>
       </c>
@@ -2914,7 +3164,7 @@
       </c>
       <c r="J46" s="40"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>90</v>
       </c>
@@ -2944,7 +3194,7 @@
       </c>
       <c r="J47" s="40"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>123</v>
       </c>
@@ -2974,7 +3224,7 @@
       </c>
       <c r="J48" s="40"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>124</v>
       </c>
@@ -3002,7 +3252,7 @@
       </c>
       <c r="J49" s="40"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>91</v>
       </c>
@@ -3015,7 +3265,7 @@
       <c r="H50" s="54"/>
       <c r="I50" s="41"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -3040,7 +3290,7 @@
       <c r="H51" s="41"/>
       <c r="I51" s="41"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>93</v>
       </c>
@@ -3068,7 +3318,7 @@
       <c r="K52" s="34"/>
       <c r="L52" s="17"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>94</v>
       </c>
@@ -3096,7 +3346,7 @@
       <c r="K53" s="19"/>
       <c r="L53" s="17"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>127</v>
       </c>
@@ -3124,7 +3374,7 @@
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>96</v>
       </c>
@@ -3149,7 +3399,7 @@
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>97</v>
       </c>
@@ -3174,7 +3424,7 @@
       <c r="H56" s="41"/>
       <c r="I56" s="41"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>99</v>
       </c>
@@ -3199,22 +3449,22 @@
       <c r="H57" s="41"/>
       <c r="I57" s="41"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
     </row>
   </sheetData>
@@ -3223,28 +3473,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.265625" customWidth="1"/>
-    <col min="2" max="2" width="20.265625" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>128</v>
@@ -3253,7 +3503,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3266,7 +3516,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -3279,7 +3529,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
@@ -3292,7 +3542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -3305,7 +3555,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -3318,7 +3568,7 @@
         <v>0.4027</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3331,7 +3581,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -3344,7 +3594,7 @@
         <v>0.3624</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -3357,7 +3607,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -3370,7 +3620,7 @@
         <v>2.6984304000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3383,14 +3633,14 @@
         <v>872.06251456402208</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>128</v>
@@ -3399,7 +3649,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
@@ -3412,7 +3662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>132</v>
       </c>
@@ -3425,7 +3675,7 @@
         <v>3.6999999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
@@ -3438,7 +3688,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -3451,7 +3701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -3464,14 +3714,14 @@
         <v>30.956701347568568</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>128</v>
       </c>
@@ -3479,7 +3729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>133</v>
       </c>
@@ -3492,7 +3742,7 @@
         <v>1.2599999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>134</v>
       </c>
@@ -3503,7 +3753,7 @@
         <v>947.8134</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>130</v>
       </c>
@@ -3516,7 +3766,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -3535,38 +3785,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.796875" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
-    <col min="11" max="11" width="15.53125" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>147</v>
       </c>
       <c r="K1" s="60"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F3" s="61"/>
       <c r="G3" s="12"/>
       <c r="K3" s="61"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -3579,13 +3829,13 @@
       </c>
       <c r="L4" s="68"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F5" s="61"/>
       <c r="G5" s="62"/>
       <c r="K5" s="61"/>
       <c r="L5" s="63"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -3603,12 +3853,12 @@
       </c>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>152</v>
       </c>
       <c r="B7">
-        <v>945151.09566537838</v>
+        <v>945151.1</v>
       </c>
       <c r="F7" s="61" t="s">
         <v>152</v>
@@ -3626,12 +3876,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>153</v>
       </c>
       <c r="B8">
-        <v>697021.3098933202</v>
+        <v>697021.31</v>
       </c>
       <c r="F8" s="61" t="s">
         <v>153</v>
@@ -3646,12 +3896,12 @@
         <v>0.70776247484270038</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>154</v>
       </c>
       <c r="B9">
-        <v>1454078.6087159668</v>
+        <v>1454078.6</v>
       </c>
       <c r="F9" s="61" t="s">
         <v>154</v>
@@ -3666,12 +3916,12 @@
         <v>0.2224618923161</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>155</v>
       </c>
       <c r="B10">
-        <v>1454078.6087159668</v>
+        <v>1454079</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>155</v>
@@ -3686,12 +3936,12 @@
         <v>0.37745200834507026</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>156</v>
       </c>
       <c r="B11">
-        <v>872966.20775969967</v>
+        <v>872966</v>
       </c>
       <c r="F11" s="61" t="s">
         <v>156</v>
@@ -3706,12 +3956,12 @@
         <v>0.61010703961712576</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>157</v>
       </c>
       <c r="B12">
-        <v>800219.02377972472</v>
+        <v>800219</v>
       </c>
       <c r="F12" s="61" t="s">
         <v>157</v>
@@ -3726,12 +3976,12 @@
         <v>0.62293657071506758</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>158</v>
       </c>
       <c r="B13">
-        <v>2715972.8030847143</v>
+        <v>2715972.8</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>158</v>
@@ -3746,12 +3996,12 @@
         <v>0.39754651786917444</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>159</v>
       </c>
       <c r="B14">
-        <v>796946.92977702012</v>
+        <v>796946.93</v>
       </c>
       <c r="F14" s="61" t="s">
         <v>159</v>
@@ -3766,12 +4016,12 @@
         <v>0.20046712726523996</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>160</v>
       </c>
       <c r="B15">
-        <v>702939.56545554136</v>
+        <v>702940</v>
       </c>
       <c r="C15" t="s">
         <v>161</v>
@@ -3792,7 +4042,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -3812,7 +4062,7 @@
         <v>0.72782551076567037</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -3832,12 +4082,12 @@
         <v>0.72782551076567037</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>164</v>
       </c>
       <c r="B18">
-        <v>1095375.5660881668</v>
+        <v>1095375.6000000001</v>
       </c>
       <c r="F18" s="60" t="s">
         <v>164</v>
@@ -3852,12 +4102,12 @@
         <v>0.19581084709700322</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>165</v>
       </c>
       <c r="B19">
-        <v>2839145.5176191349</v>
+        <v>2839146</v>
       </c>
       <c r="F19" s="60" t="s">
         <v>165</v>
@@ -3872,7 +4122,7 @@
         <v>0.64186877741386317</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -3892,7 +4142,7 @@
         <v>0.72782551076567037</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -3912,12 +4162,12 @@
         <v>0.72782551076567037</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>168</v>
       </c>
       <c r="B22">
-        <v>2974456.819426693</v>
+        <v>2974456.8</v>
       </c>
       <c r="F22" t="s">
         <v>168</v>
@@ -3935,17 +4185,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -3958,13 +4208,13 @@
       </c>
       <c r="L27" s="68"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F28" s="61"/>
       <c r="G28" s="62"/>
       <c r="K28" s="61"/>
       <c r="L28" s="63"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -3982,12 +4232,12 @@
       </c>
       <c r="L29" s="63"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>152</v>
       </c>
-      <c r="B30">
-        <v>27142.685383095715</v>
+      <c r="B30" s="69">
+        <v>22520.371158167251</v>
       </c>
       <c r="F30" s="61" t="s">
         <v>152</v>
@@ -4000,18 +4250,18 @@
       </c>
       <c r="L30" s="67">
         <f>B30/G30</f>
-        <v>0.5589275300501233</v>
+        <v>0.46374392399234438</v>
       </c>
       <c r="N30" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>153</v>
       </c>
-      <c r="B31">
-        <v>17798.487809196162</v>
+      <c r="B31" s="69">
+        <v>17727.293857959376</v>
       </c>
       <c r="F31" s="61" t="s">
         <v>153</v>
@@ -4024,15 +4274,15 @@
       </c>
       <c r="L31" s="68">
         <f t="shared" ref="L31:L45" si="0">B31/G31</f>
-        <v>1.5133405212977189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1.5072871592125279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>154</v>
       </c>
-      <c r="B32">
-        <v>31562.925137615857</v>
+      <c r="B32" s="69">
+        <v>55487.622391928686</v>
       </c>
       <c r="F32" s="61" t="s">
         <v>154</v>
@@ -4045,14 +4295,14 @@
       </c>
       <c r="L32" s="68">
         <f t="shared" si="0"/>
-        <v>0.29012462108261194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.51003908386323193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>155</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="69">
         <v>0</v>
       </c>
       <c r="F33" s="61" t="s">
@@ -4069,12 +4319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>156</v>
       </c>
-      <c r="B34">
-        <v>16498.34686564406</v>
+      <c r="B34" s="69">
+        <v>16432.353478181485</v>
       </c>
       <c r="F34" s="61" t="s">
         <v>156</v>
@@ -4087,15 +4337,15 @@
       </c>
       <c r="L34" s="68">
         <f t="shared" si="0"/>
-        <v>0.42110760806544484</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.4194231776331831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>157</v>
       </c>
-      <c r="B35">
-        <v>20204.975461458755</v>
+      <c r="B35" s="69">
+        <v>20124.155559612922</v>
       </c>
       <c r="F35" s="61" t="s">
         <v>157</v>
@@ -4108,15 +4358,15 @@
       </c>
       <c r="L35" s="68">
         <f t="shared" si="0"/>
-        <v>1.3743063816226448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.3688091560961544</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>158</v>
       </c>
-      <c r="B36">
-        <v>31621.831492484442</v>
+      <c r="B36" s="69">
+        <v>31495.344166514511</v>
       </c>
       <c r="F36" s="61" t="s">
         <v>158</v>
@@ -4129,14 +4379,14 @@
       </c>
       <c r="L36" s="68">
         <f t="shared" si="0"/>
-        <v>0.51153363625551018</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.50948750171048829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>159</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="69">
         <v>21628.666577928765</v>
       </c>
       <c r="F37" s="61" t="s">
@@ -4153,11 +4403,11 @@
         <v>0.19236194715919791</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>160</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="69">
         <v>17573.489136388536</v>
       </c>
       <c r="C38" t="s">
@@ -4180,12 +4430,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>162</v>
       </c>
-      <c r="B39">
-        <v>8899.2439045980809</v>
+      <c r="B39" s="69">
+        <v>8863.6469289796878</v>
       </c>
       <c r="F39" s="61" t="s">
         <v>162</v>
@@ -4198,15 +4448,15 @@
       </c>
       <c r="L39" s="68">
         <f t="shared" si="0"/>
-        <v>0.63162224612564954</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+        <v>0.62909575714114685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>163</v>
       </c>
-      <c r="B40">
-        <v>8899.2439045980809</v>
+      <c r="B40" s="69">
+        <v>8863.6469289796878</v>
       </c>
       <c r="F40" s="60" t="s">
         <v>163</v>
@@ -4219,15 +4469,15 @@
       </c>
       <c r="L40" s="68">
         <f t="shared" si="0"/>
-        <v>0.85418940199972526</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.85077264439172628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
-      <c r="B41">
-        <v>27142.685383095715</v>
+      <c r="B41" s="69">
+        <v>22520.371158167251</v>
       </c>
       <c r="F41" s="60" t="s">
         <v>164</v>
@@ -4240,15 +4490,15 @@
       </c>
       <c r="L41" s="68">
         <f t="shared" si="0"/>
-        <v>0.5589275300501233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.46374392399234438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>165</v>
       </c>
-      <c r="B42">
-        <v>24747.52029846609</v>
+      <c r="B42" s="69">
+        <v>24648.530217272226</v>
       </c>
       <c r="F42" s="60" t="s">
         <v>165</v>
@@ -4261,15 +4511,15 @@
       </c>
       <c r="L42" s="68">
         <f t="shared" si="0"/>
-        <v>0.28170071348456954</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.28057391063063125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>166</v>
       </c>
-      <c r="B43">
-        <v>8899.2439045980809</v>
+      <c r="B43" s="69">
+        <v>8863.6469289796878</v>
       </c>
       <c r="F43" t="s">
         <v>166</v>
@@ -4282,15 +4532,15 @@
       </c>
       <c r="L43" s="68">
         <f t="shared" si="0"/>
-        <v>0.63162224612564954</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.62909575714114685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>167</v>
       </c>
-      <c r="B44">
-        <v>8899.2439045980809</v>
+      <c r="B44" s="69">
+        <v>8863.6469289796878</v>
       </c>
       <c r="F44" t="s">
         <v>167</v>
@@ -4303,14 +4553,14 @@
       </c>
       <c r="L44" s="68">
         <f t="shared" si="0"/>
-        <v>0.63162224612564954</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.62909575714114685</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>168</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="69">
         <v>85778.046397101876</v>
       </c>
       <c r="F45" t="s">
@@ -4336,7 +4586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4346,18 +4596,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4366,7 +4616,7 @@
         <v>153.96592962866455</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4381,7 +4631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4391,33 +4641,33 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="2" width="25.86328125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="14">
         <f>Calculations!B21*About!$A$30*'India Cost Scalars'!L30</f>
-        <v>8.4746551159851116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7.0314479188675731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="14">
         <f>Calculations!C21*About!$A$30*'India Cost Scalars'!L30</f>
-        <v>16.78347604401495</v>
+        <v>13.925302692077127</v>
       </c>
     </row>
   </sheetData>
@@ -4426,7 +4676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4436,18 +4686,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="42.59765625" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4456,7 +4706,7 @@
         <v>2241671.5347316861</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
